--- a/src/assets/samples/OperationsProductsUpload.xlsx
+++ b/src/assets/samples/OperationsProductsUpload.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -104,6 +104,57 @@
   </si>
   <si>
     <t xml:space="preserve">DiscountType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1a2b3c4d5e-1234-1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR_AAA_12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy Product Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy Model number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Dummy &lt;b&gt;text&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy : text | dummy : spec </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchandise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy SubCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy SubSubCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIXED</t>
   </si>
 </sst>
 </file>
@@ -113,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -136,13 +187,26 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -179,8 +243,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -193,6 +273,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -201,15 +341,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="20.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="26.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="4.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="8.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="7.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="4.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="9.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="6.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="16.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="16.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="11.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="29" style="0" width="8.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -296,6 +463,90 @@
       </c>
       <c r="AB1" s="0" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
